--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value687.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value687.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.787558832549431</v>
+        <v>1.416622757911682</v>
       </c>
       <c r="B1">
-        <v>2.907617125993367</v>
+        <v>1.544050812721252</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>1.588072061538696</v>
       </c>
       <c r="D1">
-        <v>0.5275504354880555</v>
+        <v>2.070609092712402</v>
       </c>
       <c r="E1">
-        <v>0.2687492949742424</v>
+        <v>3.397009611129761</v>
       </c>
     </row>
   </sheetData>
